--- a/accuracy_readings.xlsx
+++ b/accuracy_readings.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8580"/>
+    <workbookView windowWidth="23040" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="37">
   <si>
     <t>All</t>
   </si>
@@ -137,7 +137,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,13 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -319,7 +326,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,12 +336,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDBFAF0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,137 +846,137 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -997,12 +998,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,49 +1007,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1078,10 +1052,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1102,15 +1073,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1120,64 +1088,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1974,15 +1909,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q126"/>
+  <dimension ref="A1:Q123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="D121" sqref="D121"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="M115" sqref="M115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="30.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="35.1111111111111" customWidth="1"/>
     <col min="2" max="4" width="6.88888888888889" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.4166666666667" style="2" customWidth="1"/>
     <col min="6" max="8" width="6.88888888888889" style="2" customWidth="1"/>
@@ -1999,8 +1934,8 @@
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="4"/>
-      <c r="M1" s="13"/>
-      <c r="Q1" s="20"/>
+      <c r="M1" s="11"/>
+      <c r="Q1" s="16"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="5"/>
@@ -2009,8 +1944,8 @@
       <c r="D2" s="2"/>
       <c r="E2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="M2" s="13"/>
-      <c r="Q2" s="20"/>
+      <c r="M2" s="11"/>
+      <c r="Q2" s="16"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6"/>
@@ -2025,32 +1960,32 @@
       <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="12"/>
       <c r="N3"/>
       <c r="O3"/>
       <c r="P3"/>
-      <c r="Q3" s="20"/>
+      <c r="Q3" s="16"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="5"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
@@ -2062,7 +1997,7 @@
       <c r="D5" s="1">
         <v>39.3</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="7">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>38.49</v>
       </c>
@@ -2075,7 +2010,7 @@
       <c r="H5" s="1">
         <v>0.668</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>65.8</v>
       </c>
@@ -2088,7 +2023,7 @@
       <c r="L5" s="1">
         <v>0.358</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="13">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>36.27</v>
       </c>
@@ -2101,13 +2036,13 @@
       <c r="P5" s="1">
         <v>0.094</v>
       </c>
-      <c r="Q5" s="22">
+      <c r="Q5" s="7">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>8.43</v>
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
@@ -2119,7 +2054,7 @@
       <c r="D6" s="1">
         <v>42.51</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>42.08</v>
       </c>
@@ -2132,7 +2067,7 @@
       <c r="H6" s="1">
         <v>0.689</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>68.87</v>
       </c>
@@ -2145,7 +2080,7 @@
       <c r="L6" s="1">
         <v>0.415</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>41.23</v>
       </c>
@@ -2158,13 +2093,13 @@
       <c r="P6" s="1">
         <v>0.127</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>11.7</v>
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -2176,7 +2111,7 @@
       <c r="D7" s="1">
         <v>42.28</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>42.27</v>
       </c>
@@ -2189,7 +2124,7 @@
       <c r="H7" s="1">
         <v>0.703</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>70.47</v>
       </c>
@@ -2202,7 +2137,7 @@
       <c r="L7" s="1">
         <v>0.416</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>41.93</v>
       </c>
@@ -2215,13 +2150,13 @@
       <c r="P7" s="1">
         <v>0.102</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>9.6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="1">
@@ -2233,7 +2168,7 @@
       <c r="D8" s="1">
         <v>42.7</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>43.01</v>
       </c>
@@ -2246,7 +2181,7 @@
       <c r="H8" s="1">
         <v>0.704</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>70.2</v>
       </c>
@@ -2259,7 +2194,7 @@
       <c r="L8" s="1">
         <v>0.421</v>
       </c>
-      <c r="M8" s="17">
+      <c r="M8" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>42.47</v>
       </c>
@@ -2272,26 +2207,26 @@
       <c r="P8" s="1">
         <v>0.11</v>
       </c>
-      <c r="Q8" s="23">
+      <c r="Q8" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>11.77</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="6"/>
-      <c r="E9" s="10"/>
+      <c r="E9" s="8"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="10"/>
+      <c r="I9" s="8"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="17"/>
-      <c r="Q9" s="23"/>
+      <c r="M9" s="14"/>
+      <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="1">
@@ -2303,7 +2238,7 @@
       <c r="D10" s="1">
         <v>40.94</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>40.86</v>
       </c>
@@ -2316,7 +2251,7 @@
       <c r="H10" s="1">
         <v>0.623</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.33</v>
       </c>
@@ -2329,7 +2264,7 @@
       <c r="L10" s="1">
         <v>0.409</v>
       </c>
-      <c r="M10" s="17">
+      <c r="M10" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>41.2</v>
       </c>
@@ -2342,36 +2277,36 @@
       <c r="P10" s="1">
         <v>0.144</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q10" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>15.23</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>45.8</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="24" t="s">
+      <c r="M11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
@@ -2383,7 +2318,7 @@
       <c r="D12" s="1">
         <v>47.55</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>47.23</v>
       </c>
@@ -2396,7 +2331,7 @@
       <c r="H12" s="1">
         <v>0.62</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I12" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.5</v>
       </c>
@@ -2409,7 +2344,7 @@
       <c r="L12" s="1">
         <v>0.494</v>
       </c>
-      <c r="M12" s="17">
+      <c r="M12" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>49.2</v>
       </c>
@@ -2422,26 +2357,26 @@
       <c r="P12" s="1">
         <v>0.266</v>
       </c>
-      <c r="Q12" s="23">
+      <c r="Q12" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>27.03</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="10"/>
+      <c r="I13" s="8"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="17"/>
-      <c r="Q13" s="23"/>
+      <c r="M13" s="14"/>
+      <c r="Q13" s="8"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1">
@@ -2453,7 +2388,7 @@
       <c r="D14" s="1">
         <v>42.52</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>42.48</v>
       </c>
@@ -2466,7 +2401,7 @@
       <c r="H14" s="1">
         <v>0.631</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.17</v>
       </c>
@@ -2479,7 +2414,7 @@
       <c r="L14" s="1">
         <v>0.423</v>
       </c>
-      <c r="M14" s="17">
+      <c r="M14" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>42.43</v>
       </c>
@@ -2492,36 +2427,36 @@
       <c r="P14" s="1">
         <v>0.201</v>
       </c>
-      <c r="Q14" s="23">
+      <c r="Q14" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>19.4</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>43.5</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="24" t="s">
+      <c r="M15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="1">
@@ -2533,7 +2468,7 @@
       <c r="D16" s="1">
         <v>47.43</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>47.52</v>
       </c>
@@ -2546,7 +2481,7 @@
       <c r="H16" s="1">
         <v>0.663</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I16" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>66.43</v>
       </c>
@@ -2559,7 +2494,7 @@
       <c r="L16" s="1">
         <v>0.497</v>
       </c>
-      <c r="M16" s="17">
+      <c r="M16" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>50.27</v>
       </c>
@@ -2572,26 +2507,26 @@
       <c r="P16" s="1">
         <v>0.225</v>
       </c>
-      <c r="Q16" s="23">
+      <c r="Q16" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>22.03</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="6"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="10"/>
+      <c r="I17" s="8"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="17"/>
-      <c r="Q17" s="23"/>
+      <c r="M17" s="14"/>
+      <c r="Q17" s="8"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="1">
@@ -2603,7 +2538,7 @@
       <c r="D18" s="1">
         <v>42.25</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>42.24</v>
       </c>
@@ -2616,7 +2551,7 @@
       <c r="H18" s="1">
         <v>0.597</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>59.63</v>
       </c>
@@ -2629,7 +2564,7 @@
       <c r="L18" s="1">
         <v>0.419</v>
       </c>
-      <c r="M18" s="17">
+      <c r="M18" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>41.33</v>
       </c>
@@ -2642,13 +2577,13 @@
       <c r="P18" s="1">
         <v>0.221</v>
       </c>
-      <c r="Q18" s="23">
+      <c r="Q18" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>22.8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="1">
@@ -2660,7 +2595,7 @@
       <c r="D19" s="1">
         <v>47.64</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>47.47</v>
       </c>
@@ -2673,7 +2608,7 @@
       <c r="H19" s="1">
         <v>0.631</v>
       </c>
-      <c r="I19" s="10">
+      <c r="I19" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>63.03</v>
       </c>
@@ -2686,7 +2621,7 @@
       <c r="L19" s="1">
         <v>0.478</v>
       </c>
-      <c r="M19" s="17">
+      <c r="M19" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>48.8</v>
       </c>
@@ -2699,49 +2634,49 @@
       <c r="P19" s="1">
         <v>0.28</v>
       </c>
-      <c r="Q19" s="23">
+      <c r="Q19" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>27.83</v>
       </c>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="6"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="10"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="17"/>
-      <c r="Q20" s="23"/>
+      <c r="M20" s="14"/>
+      <c r="Q20" s="8"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>48.6</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q21" s="24" t="s">
+      <c r="M21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="1">
@@ -2753,7 +2688,7 @@
       <c r="D22" s="1">
         <v>48.86</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>48.87</v>
       </c>
@@ -2766,7 +2701,7 @@
       <c r="H22" s="1">
         <v>0.678</v>
       </c>
-      <c r="I22" s="10">
+      <c r="I22" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>67.7</v>
       </c>
@@ -2779,7 +2714,7 @@
       <c r="L22" s="1">
         <v>0.501</v>
       </c>
-      <c r="M22" s="17">
+      <c r="M22" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>50.17</v>
       </c>
@@ -2792,34 +2727,34 @@
       <c r="P22" s="1">
         <v>0.252</v>
       </c>
-      <c r="Q22" s="23">
+      <c r="Q22" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>25.27</v>
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="10"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q23" s="24" t="s">
+      <c r="M23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1">
@@ -2831,7 +2766,7 @@
       <c r="D24" s="1">
         <v>49.12</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>49.61</v>
       </c>
@@ -2844,7 +2779,7 @@
       <c r="H24" s="1">
         <v>0.677</v>
       </c>
-      <c r="I24" s="10">
+      <c r="I24" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>68.03</v>
       </c>
@@ -2857,7 +2792,7 @@
       <c r="L24" s="1">
         <v>0.513</v>
       </c>
-      <c r="M24" s="17">
+      <c r="M24" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>50.9</v>
       </c>
@@ -2870,97 +2805,131 @@
       <c r="P24" s="1">
         <v>0.27</v>
       </c>
-      <c r="Q24" s="23">
+      <c r="Q24" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>26.47</v>
       </c>
     </row>
     <row r="25" ht="13" customHeight="1" spans="1:17">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="10">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="23">
-        <v>0</v>
+      <c r="B25" s="1">
+        <v>48.68</v>
+      </c>
+      <c r="C25" s="1">
+        <v>50.68</v>
+      </c>
+      <c r="D25" s="1">
+        <v>49.24</v>
+      </c>
+      <c r="E25" s="8">
+        <f>ROUND((B:B+C:C+D:D)/3,2)</f>
+        <v>49.53</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.688</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.671</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.688</v>
+      </c>
+      <c r="I25" s="8">
+        <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
+        <v>68.23</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.508</v>
+      </c>
+      <c r="K25" s="1">
+        <v>0.505</v>
+      </c>
+      <c r="L25" s="1">
+        <v>0.508</v>
+      </c>
+      <c r="M25" s="14">
+        <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
+        <v>50.7</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.245</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.249</v>
+      </c>
+      <c r="Q25" s="8">
+        <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
+        <v>24.63</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="6"/>
-      <c r="E26" s="10"/>
+      <c r="E26" s="8"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="10"/>
+      <c r="I26" s="8"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="17"/>
-      <c r="Q26" s="23"/>
+      <c r="M26" s="14"/>
+      <c r="Q26" s="8"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>0</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>0</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="17">
+      <c r="M27" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>0</v>
       </c>
-      <c r="Q27" s="23">
+      <c r="Q27" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>0</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="11">
+      <c r="I28" s="9">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>0</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="19">
+      <c r="M28" s="15">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>0</v>
       </c>
-      <c r="Q28" s="25">
+      <c r="Q28" s="9">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>0</v>
       </c>
@@ -2978,11 +2947,11 @@
       <c r="J29"/>
       <c r="K29"/>
       <c r="L29"/>
-      <c r="M29" s="14"/>
+      <c r="M29" s="12"/>
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29" s="20"/>
+      <c r="Q29" s="16"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="5"/>
@@ -2997,11 +2966,11 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-      <c r="M30" s="14"/>
+      <c r="M30" s="12"/>
       <c r="N30"/>
       <c r="O30"/>
       <c r="P30"/>
-      <c r="Q30" s="20"/>
+      <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="5"/>
@@ -3016,11 +2985,11 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-      <c r="M31" s="14"/>
+      <c r="M31" s="12"/>
       <c r="N31"/>
       <c r="O31"/>
       <c r="P31"/>
-      <c r="Q31" s="20"/>
+      <c r="Q31" s="16"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="5"/>
@@ -3035,11 +3004,11 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
-      <c r="M32" s="14"/>
+      <c r="M32" s="12"/>
       <c r="N32"/>
       <c r="O32"/>
       <c r="P32"/>
-      <c r="Q32" s="20"/>
+      <c r="Q32" s="16"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="6"/>
@@ -3054,14 +3023,14 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" s="14"/>
+      <c r="M33" s="12"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
-      <c r="Q33" s="20"/>
+      <c r="Q33" s="16"/>
     </row>
     <row r="34" spans="1:17">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B34" s="1">
@@ -3073,7 +3042,7 @@
       <c r="D34" s="1">
         <v>44.26</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="7">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>42.92</v>
       </c>
@@ -3086,7 +3055,7 @@
       <c r="H34" s="1">
         <v>0.649</v>
       </c>
-      <c r="I34" s="9">
+      <c r="I34" s="7">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>63.8</v>
       </c>
@@ -3099,7 +3068,7 @@
       <c r="L34" s="1">
         <v>0.362</v>
       </c>
-      <c r="M34" s="16">
+      <c r="M34" s="13">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>34.73</v>
       </c>
@@ -3112,13 +3081,13 @@
       <c r="P34" s="1">
         <v>0.155</v>
       </c>
-      <c r="Q34" s="22">
+      <c r="Q34" s="7">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>13.83</v>
       </c>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B35" s="1">
@@ -3130,7 +3099,7 @@
       <c r="D35" s="1">
         <v>47.29</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>46.93</v>
       </c>
@@ -3143,7 +3112,7 @@
       <c r="H35" s="1">
         <v>0.681</v>
       </c>
-      <c r="I35" s="10">
+      <c r="I35" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>67.47</v>
       </c>
@@ -3156,7 +3125,7 @@
       <c r="L35" s="1">
         <v>0.394</v>
       </c>
-      <c r="M35" s="17">
+      <c r="M35" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>38.73</v>
       </c>
@@ -3169,13 +3138,13 @@
       <c r="P35" s="1">
         <v>0.175</v>
       </c>
-      <c r="Q35" s="23">
+      <c r="Q35" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>18.53</v>
       </c>
     </row>
     <row r="36" spans="1:17">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B36" s="1">
@@ -3187,7 +3156,7 @@
       <c r="D36" s="1">
         <v>47.03</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>46.91</v>
       </c>
@@ -3200,7 +3169,7 @@
       <c r="H36" s="1">
         <v>0.696</v>
       </c>
-      <c r="I36" s="10">
+      <c r="I36" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>69.17</v>
       </c>
@@ -3213,7 +3182,7 @@
       <c r="L36" s="1">
         <v>0.3836</v>
       </c>
-      <c r="M36" s="17">
+      <c r="M36" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>38.59</v>
       </c>
@@ -3226,13 +3195,13 @@
       <c r="P36" s="1">
         <v>0.151</v>
       </c>
-      <c r="Q36" s="23">
+      <c r="Q36" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>14.83</v>
       </c>
     </row>
     <row r="37" spans="1:17">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="1">
@@ -3244,7 +3213,7 @@
       <c r="D37" s="1">
         <v>47.26</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>48.14</v>
       </c>
@@ -3257,7 +3226,7 @@
       <c r="H37" s="1">
         <v>0.676</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>68.6</v>
       </c>
@@ -3270,7 +3239,7 @@
       <c r="L37" s="1">
         <v>0.389</v>
       </c>
-      <c r="M37" s="17">
+      <c r="M37" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>40.03</v>
       </c>
@@ -3283,26 +3252,26 @@
       <c r="P37" s="1">
         <v>0.195</v>
       </c>
-      <c r="Q37" s="23">
+      <c r="Q37" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>19.6</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="6"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
-      <c r="I38" s="10"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="17"/>
-      <c r="Q38" s="23"/>
+      <c r="M38" s="14"/>
+      <c r="Q38" s="8"/>
     </row>
     <row r="39" spans="1:17">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B39" s="1">
@@ -3314,7 +3283,7 @@
       <c r="D39" s="1">
         <v>44.86</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>46.22</v>
       </c>
@@ -3327,7 +3296,7 @@
       <c r="H39" s="1">
         <v>0.601</v>
       </c>
-      <c r="I39" s="10">
+      <c r="I39" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>61.63</v>
       </c>
@@ -3340,7 +3309,7 @@
       <c r="L39" s="1">
         <v>0.391</v>
       </c>
-      <c r="M39" s="17">
+      <c r="M39" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>40.17</v>
       </c>
@@ -3353,36 +3322,36 @@
       <c r="P39" s="1">
         <v>0.231</v>
       </c>
-      <c r="Q39" s="23">
+      <c r="Q39" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>24.57</v>
       </c>
     </row>
     <row r="40" spans="1:17">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>49.5</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="24" t="s">
+      <c r="M40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:17">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B41" s="1">
@@ -3394,7 +3363,7 @@
       <c r="D41" s="1">
         <v>52.2</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>51.9</v>
       </c>
@@ -3407,7 +3376,7 @@
       <c r="H41" s="1">
         <v>0.626</v>
       </c>
-      <c r="I41" s="10">
+      <c r="I41" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.3</v>
       </c>
@@ -3420,7 +3389,7 @@
       <c r="L41" s="1">
         <v>0.485</v>
       </c>
-      <c r="M41" s="17">
+      <c r="M41" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>48.3</v>
       </c>
@@ -3433,26 +3402,26 @@
       <c r="P41" s="1">
         <v>0.367</v>
       </c>
-      <c r="Q41" s="23">
+      <c r="Q41" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>36.17</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="6"/>
-      <c r="E42" s="10"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="10"/>
+      <c r="I42" s="8"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="17"/>
-      <c r="Q42" s="23"/>
+      <c r="M42" s="14"/>
+      <c r="Q42" s="8"/>
     </row>
     <row r="43" spans="1:17">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B43" s="1">
@@ -3464,7 +3433,7 @@
       <c r="D43" s="1">
         <v>47.4</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>47.15</v>
       </c>
@@ -3477,7 +3446,7 @@
       <c r="H43" s="1">
         <v>0.626</v>
       </c>
-      <c r="I43" s="10">
+      <c r="I43" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.43</v>
       </c>
@@ -3490,7 +3459,7 @@
       <c r="L43" s="1">
         <v>0.415</v>
       </c>
-      <c r="M43" s="17">
+      <c r="M43" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>41.07</v>
       </c>
@@ -3503,36 +3472,36 @@
       <c r="P43" s="1">
         <v>0.258</v>
       </c>
-      <c r="Q43" s="23">
+      <c r="Q43" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>25.8</v>
       </c>
     </row>
     <row r="44" spans="1:17">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="24" t="s">
+      <c r="M44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="1">
@@ -3544,7 +3513,7 @@
       <c r="D45" s="1">
         <v>50.38</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>50.57</v>
       </c>
@@ -3557,7 +3526,7 @@
       <c r="H45" s="1">
         <v>0.651</v>
       </c>
-      <c r="I45" s="10">
+      <c r="I45" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>66.07</v>
       </c>
@@ -3570,7 +3539,7 @@
       <c r="L45" s="1">
         <v>0.464</v>
       </c>
-      <c r="M45" s="17">
+      <c r="M45" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>45.63</v>
       </c>
@@ -3583,26 +3552,26 @@
       <c r="P45" s="1">
         <v>0.256</v>
       </c>
-      <c r="Q45" s="23">
+      <c r="Q45" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>26.3</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="6"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
-      <c r="I46" s="10"/>
+      <c r="I46" s="8"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="17"/>
-      <c r="Q46" s="23"/>
+      <c r="M46" s="14"/>
+      <c r="Q46" s="8"/>
     </row>
     <row r="47" spans="1:17">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="1">
@@ -3614,7 +3583,7 @@
       <c r="D47" s="1">
         <v>44.06</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>45.99</v>
       </c>
@@ -3627,7 +3596,7 @@
       <c r="H47" s="1">
         <v>0.588</v>
       </c>
-      <c r="I47" s="10">
+      <c r="I47" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>58</v>
       </c>
@@ -3640,7 +3609,7 @@
       <c r="L47" s="1">
         <v>0.406</v>
       </c>
-      <c r="M47" s="17">
+      <c r="M47" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>41</v>
       </c>
@@ -3653,13 +3622,13 @@
       <c r="P47" s="1">
         <v>0.296</v>
       </c>
-      <c r="Q47" s="23">
+      <c r="Q47" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>29.87</v>
       </c>
     </row>
     <row r="48" spans="1:17">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B48" s="1">
@@ -3671,7 +3640,7 @@
       <c r="D48" s="1">
         <v>51.65</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>52</v>
       </c>
@@ -3684,7 +3653,7 @@
       <c r="H48" s="1">
         <v>0.625</v>
       </c>
-      <c r="I48" s="10">
+      <c r="I48" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.53</v>
       </c>
@@ -3697,7 +3666,7 @@
       <c r="L48" s="1">
         <v>0.464</v>
       </c>
-      <c r="M48" s="17">
+      <c r="M48" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>47.03</v>
       </c>
@@ -3710,49 +3679,49 @@
       <c r="P48" s="1">
         <v>0.386</v>
       </c>
-      <c r="Q48" s="23">
+      <c r="Q48" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="6"/>
-      <c r="E49" s="10"/>
+      <c r="E49" s="8"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
-      <c r="I49" s="10"/>
+      <c r="I49" s="8"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="17"/>
-      <c r="Q49" s="23"/>
+      <c r="M49" s="14"/>
+      <c r="Q49" s="8"/>
     </row>
     <row r="50" spans="1:17">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>51.4</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q50" s="24" t="s">
+      <c r="M50" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q50" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:17">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B51" s="1">
@@ -3764,7 +3733,7 @@
       <c r="D51" s="1">
         <v>52.1</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>51.95</v>
       </c>
@@ -3777,7 +3746,7 @@
       <c r="H51" s="1">
         <v>0.675</v>
       </c>
-      <c r="I51" s="10">
+      <c r="I51" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>67.2</v>
       </c>
@@ -3790,7 +3759,7 @@
       <c r="L51" s="1">
         <v>0.464</v>
       </c>
-      <c r="M51" s="17">
+      <c r="M51" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>46.5</v>
       </c>
@@ -3803,36 +3772,36 @@
       <c r="P51" s="1">
         <v>0.297</v>
       </c>
-      <c r="Q51" s="23">
+      <c r="Q51" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>29.3</v>
       </c>
     </row>
     <row r="52" spans="1:17">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>53</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="24" t="s">
+      <c r="M52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:17">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="1">
@@ -3844,7 +3813,7 @@
       <c r="D53" s="1">
         <v>53.14</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>52.78</v>
       </c>
@@ -3857,7 +3826,7 @@
       <c r="H53" s="1">
         <v>0.676</v>
       </c>
-      <c r="I53" s="10">
+      <c r="I53" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>67.23</v>
       </c>
@@ -3870,7 +3839,7 @@
       <c r="L53" s="1">
         <v>0.473</v>
       </c>
-      <c r="M53" s="17">
+      <c r="M53" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>47.17</v>
       </c>
@@ -3883,101 +3852,97 @@
       <c r="P53" s="1">
         <v>0.31</v>
       </c>
-      <c r="Q53" s="23">
+      <c r="Q53" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>32.37</v>
       </c>
     </row>
     <row r="54" spans="1:17">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E54" s="10">
-        <f>ROUND((B:B+C:C+D:D)/3,2)</f>
-        <v>0</v>
+        <v>53.58</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
-      <c r="I54" s="10">
-        <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
-        <v>0</v>
+      <c r="I54" s="8">
+        <v>67.7</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
-      <c r="M54" s="17">
-        <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="23">
-        <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
-        <v>0</v>
+      <c r="M54" s="14">
+        <v>49</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>31.6</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="A55" s="6"/>
-      <c r="E55" s="10"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
-      <c r="I55" s="10"/>
+      <c r="I55" s="8"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
-      <c r="M55" s="17"/>
-      <c r="Q55" s="23"/>
+      <c r="M55" s="14"/>
+      <c r="Q55" s="8"/>
     </row>
     <row r="56" spans="1:17">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>0</v>
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>0</v>
       </c>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="17">
+      <c r="M56" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>0</v>
       </c>
-      <c r="Q56" s="23">
+      <c r="Q56" s="8">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="9">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>0</v>
       </c>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
-      <c r="I57" s="11">
+      <c r="I57" s="9">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>0</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
-      <c r="M57" s="19">
+      <c r="M57" s="15">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>0</v>
       </c>
-      <c r="Q57" s="25">
+      <c r="Q57" s="9">
         <f>ROUND((N:N+O:O+P:P)*100/3,2)</f>
         <v>0</v>
       </c>
@@ -3995,7 +3960,7 @@
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="M58" s="14"/>
+      <c r="M58" s="12"/>
       <c r="N58"/>
     </row>
     <row r="59" spans="1:14">
@@ -4011,7 +3976,7 @@
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="M59" s="14"/>
+      <c r="M59" s="12"/>
       <c r="N59"/>
     </row>
     <row r="60" spans="1:14">
@@ -4027,7 +3992,7 @@
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
-      <c r="M60" s="14"/>
+      <c r="M60" s="12"/>
       <c r="N60"/>
     </row>
     <row r="61" spans="1:14">
@@ -4043,7 +4008,7 @@
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
-      <c r="M61" s="14"/>
+      <c r="M61" s="12"/>
       <c r="N61"/>
     </row>
     <row r="62" spans="1:13">
@@ -4059,10 +4024,10 @@
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
-      <c r="M62" s="14"/>
+      <c r="M62" s="12"/>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B63" s="1">
@@ -4074,7 +4039,7 @@
       <c r="D63" s="1">
         <v>57.08</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="7">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>56.61</v>
       </c>
@@ -4087,7 +4052,7 @@
       <c r="H63" s="1">
         <v>0.625</v>
       </c>
-      <c r="I63" s="9">
+      <c r="I63" s="7">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>63</v>
       </c>
@@ -4100,13 +4065,13 @@
       <c r="L63" s="1">
         <v>0.422</v>
       </c>
-      <c r="M63" s="16">
+      <c r="M63" s="13">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>42.53</v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B64" s="1">
@@ -4118,7 +4083,7 @@
       <c r="D64" s="1">
         <v>60.15</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>60.08</v>
       </c>
@@ -4131,7 +4096,7 @@
       <c r="H64" s="1">
         <v>0.659</v>
       </c>
-      <c r="I64" s="10">
+      <c r="I64" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>66.4</v>
       </c>
@@ -4144,13 +4109,13 @@
       <c r="L64" s="1">
         <v>0.452</v>
       </c>
-      <c r="M64" s="17">
+      <c r="M64" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>45.83</v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B65" s="1">
@@ -4162,7 +4127,7 @@
       <c r="D65" s="1">
         <v>59.55</v>
       </c>
-      <c r="E65" s="10">
+      <c r="E65" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>59.79</v>
       </c>
@@ -4175,7 +4140,7 @@
       <c r="H65" s="1">
         <v>0.67</v>
       </c>
-      <c r="I65" s="10">
+      <c r="I65" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>66.7</v>
       </c>
@@ -4188,69 +4153,69 @@
       <c r="L65" s="1">
         <v>0.446</v>
       </c>
-      <c r="M65" s="17">
+      <c r="M65" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>44.27</v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B66" s="26">
+      <c r="B66" s="17">
         <v>58.54</v>
       </c>
-      <c r="C66" s="26">
+      <c r="C66" s="17">
         <v>58.53</v>
       </c>
-      <c r="D66" s="26">
+      <c r="D66" s="17">
         <v>58.78</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E66" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>58.62</v>
       </c>
-      <c r="F66" s="26">
+      <c r="F66" s="17">
         <v>0.653</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="17">
         <v>0.652</v>
       </c>
-      <c r="H66" s="26">
+      <c r="H66" s="17">
         <v>0.66</v>
       </c>
-      <c r="I66" s="10">
+      <c r="I66" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>65.5</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="17">
         <v>0.434</v>
       </c>
-      <c r="K66" s="26">
+      <c r="K66" s="17">
         <v>0.435</v>
       </c>
-      <c r="L66" s="26">
+      <c r="L66" s="17">
         <v>0.426</v>
       </c>
-      <c r="M66" s="17">
+      <c r="M66" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>43.17</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="6"/>
-      <c r="E67" s="10"/>
+      <c r="E67" s="8"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
-      <c r="I67" s="10"/>
+      <c r="I67" s="8"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="17"/>
+      <c r="M67" s="14"/>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="1">
@@ -4262,7 +4227,7 @@
       <c r="D68" s="1">
         <v>57.9</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>57.83</v>
       </c>
@@ -4275,7 +4240,7 @@
       <c r="H68" s="1">
         <v>0.62</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>62.1</v>
       </c>
@@ -4288,33 +4253,33 @@
       <c r="L68" s="1">
         <v>0.474</v>
       </c>
-      <c r="M68" s="17">
+      <c r="M68" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>48.13</v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E69" s="10">
+      <c r="E69" s="8">
         <v>59.2</v>
       </c>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1"/>
-      <c r="I69" s="12" t="s">
+      <c r="I69" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="18" t="s">
+      <c r="M69" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B70" s="1">
@@ -4326,7 +4291,7 @@
       <c r="D70" s="1">
         <v>62.3</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E70" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>61.76</v>
       </c>
@@ -4339,7 +4304,7 @@
       <c r="H70" s="1">
         <v>0.647</v>
       </c>
-      <c r="I70" s="10">
+      <c r="I70" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>64.2</v>
       </c>
@@ -4352,25 +4317,25 @@
       <c r="L70" s="1">
         <v>0.567</v>
       </c>
-      <c r="M70" s="17">
+      <c r="M70" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>56.1</v>
       </c>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="6"/>
-      <c r="E71" s="10"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
-      <c r="I71" s="10"/>
+      <c r="I71" s="8"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
-      <c r="M71" s="17"/>
+      <c r="M71" s="14"/>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="6" t="s">
         <v>12</v>
       </c>
       <c r="B72" s="1">
@@ -4382,7 +4347,7 @@
       <c r="D72" s="1">
         <v>57.98</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E72" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>57.96</v>
       </c>
@@ -4395,7 +4360,7 @@
       <c r="H72" s="1">
         <v>0.632</v>
       </c>
-      <c r="I72" s="10">
+      <c r="I72" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>63.3</v>
       </c>
@@ -4408,33 +4373,33 @@
       <c r="L72" s="1">
         <v>0.462</v>
       </c>
-      <c r="M72" s="17">
+      <c r="M72" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>45.9</v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="8">
         <v>57.6</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
       <c r="H73" s="1"/>
-      <c r="I73" s="12" t="s">
+      <c r="I73" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
-      <c r="M73" s="18" t="s">
+      <c r="M73" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="1">
@@ -4446,7 +4411,7 @@
       <c r="D74" s="1">
         <v>58.39</v>
       </c>
-      <c r="E74" s="10">
+      <c r="E74" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>58.18</v>
       </c>
@@ -4459,7 +4424,7 @@
       <c r="H74" s="1">
         <v>0.636</v>
       </c>
-      <c r="I74" s="10">
+      <c r="I74" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>63.33</v>
       </c>
@@ -4472,25 +4437,25 @@
       <c r="L74" s="1">
         <v>0.466</v>
       </c>
-      <c r="M74" s="17">
+      <c r="M74" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>46.6</v>
       </c>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="6"/>
-      <c r="E75" s="10"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
       <c r="H75" s="1"/>
-      <c r="I75" s="10"/>
+      <c r="I75" s="8"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
-      <c r="M75" s="17"/>
+      <c r="M75" s="14"/>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B76" s="1">
@@ -4502,7 +4467,7 @@
       <c r="D76" s="1">
         <v>58.4</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E76" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>58.29</v>
       </c>
@@ -4515,7 +4480,7 @@
       <c r="H76" s="1">
         <v>0.618</v>
       </c>
-      <c r="I76" s="10">
+      <c r="I76" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>61.5</v>
       </c>
@@ -4528,13 +4493,13 @@
       <c r="L76" s="1">
         <v>0.51</v>
       </c>
-      <c r="M76" s="17">
+      <c r="M76" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B77" s="1">
@@ -4546,7 +4511,7 @@
       <c r="D77" s="1">
         <v>61.52</v>
       </c>
-      <c r="E77" s="10">
+      <c r="E77" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>61.52</v>
       </c>
@@ -4559,7 +4524,7 @@
       <c r="H77" s="1">
         <v>0.638</v>
       </c>
-      <c r="I77" s="10">
+      <c r="I77" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>64.13</v>
       </c>
@@ -4572,45 +4537,45 @@
       <c r="L77" s="1">
         <v>0.551</v>
       </c>
-      <c r="M77" s="17">
+      <c r="M77" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>55.53</v>
       </c>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="6"/>
-      <c r="E78" s="10"/>
+      <c r="E78" s="8"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
-      <c r="I78" s="10"/>
+      <c r="I78" s="8"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
-      <c r="M78" s="17"/>
+      <c r="M78" s="14"/>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="8" t="s">
+      <c r="A79" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E79" s="10">
+      <c r="E79" s="8">
         <v>59.8</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
       <c r="H79" s="1"/>
-      <c r="I79" s="12" t="s">
+      <c r="I79" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
-      <c r="M79" s="18" t="s">
+      <c r="M79" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B80" s="1">
@@ -4622,7 +4587,7 @@
       <c r="D80" s="1">
         <v>59.27</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E80" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>59.13</v>
       </c>
@@ -4635,7 +4600,7 @@
       <c r="H80" s="1">
         <v>0.65</v>
       </c>
-      <c r="I80" s="10">
+      <c r="I80" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>64.9</v>
       </c>
@@ -4648,33 +4613,33 @@
       <c r="L80" s="1">
         <v>0.463</v>
       </c>
-      <c r="M80" s="17">
+      <c r="M80" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>46.1</v>
       </c>
     </row>
     <row r="81" ht="13" customHeight="1" spans="1:13">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="10">
+      <c r="E81" s="8">
         <v>60.2</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
-      <c r="I81" s="12" t="s">
+      <c r="I81" s="8" t="s">
         <v>10</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
-      <c r="M81" s="18" t="s">
+      <c r="M81" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="1">
@@ -4686,7 +4651,7 @@
       <c r="D82" s="1">
         <v>60.06</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E82" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>59.91</v>
       </c>
@@ -4699,7 +4664,7 @@
       <c r="H82" s="1">
         <v>0.648</v>
       </c>
-      <c r="I82" s="10">
+      <c r="I82" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>65.3</v>
       </c>
@@ -4712,88 +4677,86 @@
       <c r="L82" s="1">
         <v>0.474</v>
       </c>
-      <c r="M82" s="17">
+      <c r="M82" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>47.73</v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E83" s="10">
-        <f>ROUND((B:B+C:C+D:D)/3,2)</f>
-        <v>0</v>
+      <c r="E83" s="8">
+        <v>61.21</v>
       </c>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="10">
-        <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
-        <v>0</v>
+      <c r="I83" s="8">
+        <v>66.24</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
-      <c r="M83" s="17">
-        <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
-        <v>0</v>
+      <c r="M83" s="14">
+        <f>50</f>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" s="6"/>
-      <c r="E84" s="10"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
-      <c r="I84" s="10"/>
+      <c r="I84" s="8"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
-      <c r="M84" s="17"/>
+      <c r="M84" s="14"/>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="10">
+      <c r="E85" s="8">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>0</v>
       </c>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
       <c r="H85" s="1"/>
-      <c r="I85" s="10">
+      <c r="I85" s="8">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>0</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="17">
+      <c r="M85" s="14">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E86" s="9">
         <f>ROUND((B:B+C:C+D:D)/3,2)</f>
         <v>0</v>
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
-      <c r="I86" s="11">
+      <c r="I86" s="9">
         <f>ROUND((F:F+G:G+H:H)*100/3,2)</f>
         <v>0</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
-      <c r="M86" s="19">
+      <c r="M86" s="15">
         <f>ROUND((J:J+K:K+L:L)*100/3,2)</f>
         <v>0</v>
       </c>
@@ -4815,986 +4778,901 @@
       <c r="A88" s="6"/>
     </row>
     <row r="89" spans="1:12">
-      <c r="A89" s="27"/>
-      <c r="B89" s="28" t="s">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="C89" s="29" t="s">
+      <c r="C89" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="30" t="s">
+      <c r="D89" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E89" s="31" t="s">
+      <c r="E89" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="F89" s="32"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="34" t="s">
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+      <c r="H89" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I89" s="66"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="66" t="s">
+      <c r="I89" s="23"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="L89" s="67"/>
+      <c r="L89" s="24"/>
     </row>
     <row r="90" ht="15.15" spans="1:12">
-      <c r="A90" s="35"/>
-      <c r="B90" s="36"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="39" t="s">
+      <c r="A90" s="25"/>
+      <c r="B90" s="26"/>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="F90" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="G90" s="41" t="s">
+      <c r="G90" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="H90" s="39" t="s">
+      <c r="H90" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="I90" s="40" t="s">
+      <c r="I90" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="J90" s="41" t="s">
+      <c r="J90" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="K90" s="40" t="s">
+      <c r="K90" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="L90" s="41" t="s">
+      <c r="L90" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:12">
-      <c r="A91" s="42" t="s">
+      <c r="A91" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B91" s="43">
+      <c r="B91" s="33">
         <f>E5</f>
         <v>38.49</v>
       </c>
-      <c r="C91" s="44">
+      <c r="C91" s="16">
         <f>E34</f>
         <v>42.92</v>
       </c>
-      <c r="D91" s="45">
+      <c r="D91" s="34">
         <f>E63</f>
         <v>56.61</v>
       </c>
-      <c r="E91" s="46">
+      <c r="E91" s="35">
         <v>65.8</v>
       </c>
       <c r="F91" s="4">
         <v>36.27</v>
       </c>
-      <c r="G91" s="47">
+      <c r="G91" s="36">
         <v>8.43</v>
       </c>
-      <c r="H91" s="46">
+      <c r="H91" s="35">
         <v>63.8</v>
       </c>
       <c r="I91" s="4">
         <v>34.73</v>
       </c>
-      <c r="J91" s="47">
+      <c r="J91" s="36">
         <v>13.83</v>
       </c>
       <c r="K91" s="4">
         <v>63</v>
       </c>
-      <c r="L91" s="47">
+      <c r="L91" s="36">
         <v>42.53</v>
       </c>
     </row>
     <row r="92" spans="1:12">
-      <c r="A92" s="48" t="s">
+      <c r="A92" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B92" s="43">
+      <c r="B92" s="33">
         <f>E6</f>
         <v>42.08</v>
       </c>
-      <c r="C92" s="44">
+      <c r="C92" s="16">
         <f t="shared" ref="C92:C114" si="0">E35</f>
         <v>46.93</v>
       </c>
-      <c r="D92" s="45">
+      <c r="D92" s="34">
         <f t="shared" ref="D92:D114" si="1">E64</f>
         <v>60.08</v>
       </c>
-      <c r="E92" s="46">
+      <c r="E92" s="35">
         <v>68.87</v>
       </c>
       <c r="F92" s="4">
         <v>41.23</v>
       </c>
-      <c r="G92" s="47">
+      <c r="G92" s="36">
         <v>11.7</v>
       </c>
-      <c r="H92" s="46">
+      <c r="H92" s="35">
         <v>67.47</v>
       </c>
       <c r="I92" s="4">
         <v>38.73</v>
       </c>
-      <c r="J92" s="47">
+      <c r="J92" s="36">
         <v>18.53</v>
       </c>
       <c r="K92" s="4">
         <v>66.4</v>
       </c>
-      <c r="L92" s="47">
+      <c r="L92" s="36">
         <v>45.83</v>
       </c>
     </row>
     <row r="93" spans="1:12">
-      <c r="A93" s="49" t="s">
+      <c r="A93" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B93" s="50">
+      <c r="B93" s="39">
         <f>E7</f>
         <v>42.27</v>
       </c>
-      <c r="C93" s="51">
+      <c r="C93" s="40">
         <f t="shared" si="0"/>
         <v>46.91</v>
       </c>
-      <c r="D93" s="52">
+      <c r="D93" s="41">
         <f t="shared" si="1"/>
         <v>59.79</v>
       </c>
-      <c r="E93" s="53">
+      <c r="E93" s="39">
         <v>70.47</v>
       </c>
-      <c r="F93" s="54">
+      <c r="F93" s="40">
         <v>41.93</v>
       </c>
-      <c r="G93" s="55">
+      <c r="G93" s="41">
         <v>9.6</v>
       </c>
-      <c r="H93" s="53">
+      <c r="H93" s="39">
         <v>69.17</v>
       </c>
-      <c r="I93" s="54">
+      <c r="I93" s="40">
         <v>38.59</v>
       </c>
-      <c r="J93" s="55">
+      <c r="J93" s="41">
         <v>14.83</v>
       </c>
-      <c r="K93" s="54">
+      <c r="K93" s="40">
         <v>66.7</v>
       </c>
-      <c r="L93" s="55">
+      <c r="L93" s="41">
         <v>44.27</v>
       </c>
     </row>
     <row r="94" spans="1:12">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B94" s="50">
+      <c r="B94" s="39">
         <f>E8</f>
         <v>43.01</v>
       </c>
-      <c r="C94" s="51">
+      <c r="C94" s="40">
         <f t="shared" si="0"/>
         <v>48.14</v>
       </c>
-      <c r="D94" s="52">
+      <c r="D94" s="41">
         <f t="shared" si="1"/>
         <v>58.62</v>
       </c>
-      <c r="E94" s="53">
+      <c r="E94" s="39">
         <v>70.2</v>
       </c>
-      <c r="F94" s="54">
+      <c r="F94" s="40">
         <v>42.47</v>
       </c>
-      <c r="G94" s="55">
+      <c r="G94" s="41">
         <v>11.77</v>
       </c>
-      <c r="H94" s="53">
+      <c r="H94" s="39">
         <v>68.6</v>
       </c>
-      <c r="I94" s="54">
+      <c r="I94" s="40">
         <v>40.03</v>
       </c>
-      <c r="J94" s="55">
+      <c r="J94" s="41">
         <v>19.6</v>
       </c>
-      <c r="K94" s="54">
+      <c r="K94" s="40">
         <v>65.5</v>
       </c>
-      <c r="L94" s="55">
+      <c r="L94" s="41">
         <v>43.17</v>
       </c>
     </row>
     <row r="95" spans="1:12">
-      <c r="A95" s="48"/>
-      <c r="B95" s="43"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="45"/>
-      <c r="E95" s="46"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="33"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="35"/>
       <c r="F95" s="4"/>
-      <c r="G95" s="47"/>
-      <c r="H95" s="46"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="35"/>
       <c r="I95" s="4"/>
-      <c r="J95" s="47"/>
+      <c r="J95" s="36"/>
       <c r="K95" s="4"/>
-      <c r="L95" s="47"/>
+      <c r="L95" s="36"/>
     </row>
     <row r="96" spans="1:12">
-      <c r="A96" s="48" t="s">
+      <c r="A96" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B96" s="43">
+      <c r="B96" s="33">
         <f t="shared" ref="B95:B114" si="2">E10</f>
         <v>40.86</v>
       </c>
-      <c r="C96" s="44">
+      <c r="C96" s="16">
         <f t="shared" si="0"/>
         <v>46.22</v>
       </c>
-      <c r="D96" s="45">
+      <c r="D96" s="34">
         <f t="shared" si="1"/>
         <v>57.83</v>
       </c>
-      <c r="E96" s="46">
+      <c r="E96" s="35">
         <v>62.33</v>
       </c>
       <c r="F96" s="4">
         <v>41.2</v>
       </c>
-      <c r="G96" s="47">
+      <c r="G96" s="36">
         <v>15.23</v>
       </c>
-      <c r="H96" s="46">
+      <c r="H96" s="35">
         <v>61.63</v>
       </c>
       <c r="I96" s="4">
         <v>40.17</v>
       </c>
-      <c r="J96" s="47">
+      <c r="J96" s="36">
         <v>24.57</v>
       </c>
       <c r="K96" s="4">
         <v>62.1</v>
       </c>
-      <c r="L96" s="47">
+      <c r="L96" s="36">
         <v>48.13</v>
       </c>
     </row>
     <row r="97" spans="1:12">
-      <c r="A97" s="48" t="s">
+      <c r="A97" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B97" s="43">
+      <c r="B97" s="33">
         <f t="shared" si="2"/>
         <v>45.8</v>
       </c>
-      <c r="C97" s="44">
+      <c r="C97" s="16">
         <f t="shared" si="0"/>
         <v>49.5</v>
       </c>
-      <c r="D97" s="45">
+      <c r="D97" s="34">
         <f t="shared" si="1"/>
         <v>59.2</v>
       </c>
-      <c r="E97" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J97" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="57" t="s">
+      <c r="E97" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K97" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="A98" s="49" t="s">
+      <c r="A98" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B98" s="50">
+      <c r="B98" s="39">
         <f t="shared" si="2"/>
         <v>47.23</v>
       </c>
-      <c r="C98" s="51">
+      <c r="C98" s="40">
         <f t="shared" si="0"/>
         <v>51.9</v>
       </c>
-      <c r="D98" s="52">
+      <c r="D98" s="41">
         <f t="shared" si="1"/>
         <v>61.76</v>
       </c>
-      <c r="E98" s="53">
+      <c r="E98" s="39">
         <v>62.5</v>
       </c>
-      <c r="F98" s="54">
+      <c r="F98" s="40">
         <v>49.2</v>
       </c>
-      <c r="G98" s="55">
+      <c r="G98" s="41">
         <v>27.03</v>
       </c>
-      <c r="H98" s="53">
+      <c r="H98" s="39">
         <v>62.3</v>
       </c>
-      <c r="I98" s="54">
+      <c r="I98" s="40">
         <v>48.3</v>
       </c>
-      <c r="J98" s="55">
+      <c r="J98" s="41">
         <v>36.17</v>
       </c>
-      <c r="K98" s="54">
+      <c r="K98" s="40">
         <v>64.2</v>
       </c>
-      <c r="L98" s="55">
+      <c r="L98" s="41">
         <v>56.1</v>
       </c>
     </row>
     <row r="99" spans="1:12">
-      <c r="A99" s="48"/>
-      <c r="B99" s="43"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="45"/>
-      <c r="E99" s="46"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="33"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="35"/>
       <c r="F99" s="4"/>
-      <c r="G99" s="47"/>
-      <c r="H99" s="46"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="35"/>
       <c r="I99" s="4"/>
-      <c r="J99" s="47"/>
+      <c r="J99" s="36"/>
       <c r="K99" s="4"/>
-      <c r="L99" s="47"/>
+      <c r="L99" s="36"/>
     </row>
     <row r="100" spans="1:12">
-      <c r="A100" s="48" t="s">
+      <c r="A100" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="43">
+      <c r="B100" s="33">
         <f t="shared" si="2"/>
         <v>42.48</v>
       </c>
-      <c r="C100" s="44">
+      <c r="C100" s="16">
         <f t="shared" si="0"/>
         <v>47.15</v>
       </c>
-      <c r="D100" s="45">
+      <c r="D100" s="34">
         <f t="shared" si="1"/>
         <v>57.96</v>
       </c>
-      <c r="E100" s="46">
+      <c r="E100" s="35">
         <v>62.17</v>
       </c>
       <c r="F100" s="4">
         <v>42.43</v>
       </c>
-      <c r="G100" s="47">
+      <c r="G100" s="36">
         <v>19.4</v>
       </c>
-      <c r="H100" s="46">
+      <c r="H100" s="35">
         <v>62.43</v>
       </c>
       <c r="I100" s="4">
         <v>41.07</v>
       </c>
-      <c r="J100" s="47">
+      <c r="J100" s="36">
         <v>25.8</v>
       </c>
       <c r="K100" s="4">
         <v>63.3</v>
       </c>
-      <c r="L100" s="47">
+      <c r="L100" s="36">
         <v>45.9</v>
       </c>
     </row>
     <row r="101" spans="1:12">
-      <c r="A101" s="48" t="s">
+      <c r="A101" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B101" s="43">
+      <c r="B101" s="33">
         <f t="shared" si="2"/>
         <v>43.5</v>
       </c>
-      <c r="C101" s="58" t="str">
+      <c r="C101" s="16" t="str">
         <f t="shared" si="0"/>
         <v>~</v>
       </c>
-      <c r="D101" s="45">
+      <c r="D101" s="34">
         <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
-      <c r="E101" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J101" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="57" t="s">
+      <c r="E101" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K101" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:12">
-      <c r="A102" s="49" t="s">
+      <c r="A102" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B102" s="50">
+      <c r="B102" s="39">
         <f t="shared" si="2"/>
         <v>47.52</v>
       </c>
-      <c r="C102" s="51">
+      <c r="C102" s="40">
         <f t="shared" si="0"/>
         <v>50.57</v>
       </c>
-      <c r="D102" s="52">
+      <c r="D102" s="41">
         <f t="shared" si="1"/>
         <v>58.18</v>
       </c>
-      <c r="E102" s="53">
+      <c r="E102" s="39">
         <v>66.43</v>
       </c>
-      <c r="F102" s="54">
+      <c r="F102" s="40">
         <v>50.27</v>
       </c>
-      <c r="G102" s="55">
+      <c r="G102" s="41">
         <v>22.03</v>
       </c>
-      <c r="H102" s="53">
+      <c r="H102" s="39">
         <v>66.07</v>
       </c>
-      <c r="I102" s="54">
+      <c r="I102" s="40">
         <v>45.63</v>
       </c>
-      <c r="J102" s="55">
+      <c r="J102" s="41">
         <v>26.3</v>
       </c>
-      <c r="K102" s="54">
+      <c r="K102" s="40">
         <v>63.33</v>
       </c>
-      <c r="L102" s="55">
+      <c r="L102" s="41">
         <v>46.6</v>
       </c>
     </row>
     <row r="103" spans="1:12">
-      <c r="A103" s="48"/>
-      <c r="B103" s="43"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="45"/>
-      <c r="E103" s="46"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="33"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="34"/>
+      <c r="E103" s="35"/>
       <c r="F103" s="4"/>
-      <c r="G103" s="47"/>
-      <c r="H103" s="46"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="35"/>
       <c r="I103" s="4"/>
-      <c r="J103" s="47"/>
+      <c r="J103" s="36"/>
       <c r="K103" s="4"/>
-      <c r="L103" s="47"/>
+      <c r="L103" s="36"/>
     </row>
     <row r="104" spans="1:12">
-      <c r="A104" s="48" t="s">
+      <c r="A104" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B104" s="43">
+      <c r="B104" s="33">
         <f t="shared" si="2"/>
         <v>42.24</v>
       </c>
-      <c r="C104" s="44">
+      <c r="C104" s="16">
         <f t="shared" si="0"/>
         <v>45.99</v>
       </c>
-      <c r="D104" s="45">
+      <c r="D104" s="34">
         <f t="shared" si="1"/>
         <v>58.29</v>
       </c>
-      <c r="E104" s="46">
+      <c r="E104" s="35">
         <v>59.63</v>
       </c>
       <c r="F104" s="4">
         <v>41.33</v>
       </c>
-      <c r="G104" s="47">
+      <c r="G104" s="36">
         <v>22.8</v>
       </c>
-      <c r="H104" s="46">
+      <c r="H104" s="35">
         <v>58</v>
       </c>
       <c r="I104" s="4">
         <v>41</v>
       </c>
-      <c r="J104" s="47">
+      <c r="J104" s="36">
         <v>29.87</v>
       </c>
       <c r="K104" s="4">
         <v>61.5</v>
       </c>
-      <c r="L104" s="47">
+      <c r="L104" s="36">
         <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:12">
-      <c r="A105" s="49" t="s">
+      <c r="A105" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="B105" s="50">
+      <c r="B105" s="39">
         <f t="shared" si="2"/>
         <v>47.47</v>
       </c>
-      <c r="C105" s="51">
+      <c r="C105" s="40">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D105" s="52">
+      <c r="D105" s="41">
         <f t="shared" si="1"/>
         <v>61.52</v>
       </c>
-      <c r="E105" s="53">
+      <c r="E105" s="39">
         <v>63.03</v>
       </c>
-      <c r="F105" s="54">
+      <c r="F105" s="40">
         <v>48.8</v>
       </c>
-      <c r="G105" s="55">
+      <c r="G105" s="41">
         <v>27.83</v>
       </c>
-      <c r="H105" s="53">
+      <c r="H105" s="39">
         <v>62.53</v>
       </c>
-      <c r="I105" s="54">
+      <c r="I105" s="40">
         <v>47.03</v>
       </c>
-      <c r="J105" s="55">
+      <c r="J105" s="41">
         <v>39</v>
       </c>
-      <c r="K105" s="54">
+      <c r="K105" s="40">
         <v>64.13</v>
       </c>
-      <c r="L105" s="55">
+      <c r="L105" s="41">
         <v>55.53</v>
       </c>
     </row>
     <row r="106" spans="1:12">
-      <c r="A106" s="48"/>
-      <c r="B106" s="43"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="45"/>
-      <c r="E106" s="46"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="33"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="35"/>
       <c r="F106" s="4"/>
-      <c r="G106" s="47"/>
-      <c r="H106" s="46"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="35"/>
       <c r="I106" s="4"/>
-      <c r="J106" s="47"/>
+      <c r="J106" s="36"/>
       <c r="K106" s="4"/>
-      <c r="L106" s="47"/>
+      <c r="L106" s="36"/>
     </row>
     <row r="107" spans="1:12">
-      <c r="A107" s="48" t="s">
+      <c r="A107" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B107" s="43">
+      <c r="B107" s="33">
         <f t="shared" si="2"/>
         <v>48.6</v>
       </c>
-      <c r="C107" s="44">
+      <c r="C107" s="16">
         <f t="shared" si="0"/>
         <v>51.4</v>
       </c>
-      <c r="D107" s="45">
+      <c r="D107" s="34">
         <f t="shared" si="1"/>
         <v>59.8</v>
       </c>
-      <c r="E107" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G107" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J107" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="K107" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L107" s="57" t="s">
+      <c r="E107" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L107" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:12">
-      <c r="A108" s="48" t="s">
+      <c r="A108" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B108" s="43">
+      <c r="B108" s="33">
         <f t="shared" si="2"/>
         <v>48.87</v>
       </c>
-      <c r="C108" s="44">
+      <c r="C108" s="16">
         <f t="shared" si="0"/>
         <v>51.95</v>
       </c>
-      <c r="D108" s="45">
+      <c r="D108" s="34">
         <f t="shared" si="1"/>
         <v>59.13</v>
       </c>
-      <c r="E108" s="46">
+      <c r="E108" s="35">
         <v>67.7</v>
       </c>
       <c r="F108" s="4">
         <v>50.17</v>
       </c>
-      <c r="G108" s="47">
+      <c r="G108" s="36">
         <v>25.27</v>
       </c>
-      <c r="H108" s="46">
+      <c r="H108" s="35">
         <v>67.2</v>
       </c>
       <c r="I108" s="4">
         <v>46.5</v>
       </c>
-      <c r="J108" s="47">
+      <c r="J108" s="36">
         <v>29.3</v>
       </c>
       <c r="K108" s="4">
         <v>64.9</v>
       </c>
-      <c r="L108" s="47">
+      <c r="L108" s="36">
         <v>46.1</v>
       </c>
     </row>
     <row r="109" spans="1:12">
-      <c r="A109" s="48" t="s">
+      <c r="A109" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="43">
+      <c r="B109" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="C109" s="44">
+      <c r="C109" s="16">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D109" s="45">
+      <c r="D109" s="34">
         <f t="shared" si="1"/>
         <v>60.2</v>
       </c>
-      <c r="E109" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G109" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="H109" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="I109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J109" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="K109" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="57" t="s">
+      <c r="E109" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="H109" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="36" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:12">
-      <c r="A110" s="48" t="s">
+      <c r="A110" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B110" s="43">
+      <c r="B110" s="33">
         <f t="shared" si="2"/>
         <v>49.61</v>
       </c>
-      <c r="C110" s="44">
+      <c r="C110" s="16">
         <f t="shared" si="0"/>
         <v>52.78</v>
       </c>
-      <c r="D110" s="45">
+      <c r="D110" s="34">
         <f t="shared" si="1"/>
         <v>59.91</v>
       </c>
-      <c r="E110" s="46">
+      <c r="E110" s="35">
         <v>68.03</v>
       </c>
       <c r="F110" s="4">
         <v>50.9</v>
       </c>
-      <c r="G110" s="47">
+      <c r="G110" s="36">
         <v>26.47</v>
       </c>
-      <c r="H110" s="46">
+      <c r="H110" s="35">
         <v>67.23</v>
       </c>
       <c r="I110" s="4">
         <v>47.17</v>
       </c>
-      <c r="J110" s="47">
+      <c r="J110" s="36">
         <v>32.37</v>
       </c>
       <c r="K110" s="4">
         <v>65.3</v>
       </c>
-      <c r="L110" s="47">
+      <c r="L110" s="36">
         <v>47.73</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
-      <c r="A111" s="49" t="s">
+    <row r="111" ht="15.15" spans="1:12">
+      <c r="A111" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="50">
+      <c r="B111" s="43">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C111" s="51">
+        <v>49.53</v>
+      </c>
+      <c r="C111" s="44">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D111" s="52">
+        <v>53.58</v>
+      </c>
+      <c r="D111" s="45">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E111" s="53">
-        <v>0</v>
-      </c>
-      <c r="F111" s="54">
-        <v>0</v>
-      </c>
-      <c r="G111" s="55">
-        <v>0</v>
-      </c>
-      <c r="H111" s="53">
-        <v>0</v>
-      </c>
-      <c r="I111" s="54">
-        <v>0</v>
-      </c>
-      <c r="J111" s="55">
-        <v>0</v>
-      </c>
-      <c r="K111" s="54">
-        <v>0</v>
-      </c>
-      <c r="L111" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12">
-      <c r="A112" s="48"/>
-      <c r="B112" s="43"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="45"/>
-      <c r="E112" s="46"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="47"/>
-      <c r="H112" s="46"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="47"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="47"/>
-    </row>
-    <row r="113" spans="1:12">
-      <c r="A113" s="48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B113" s="43">
-        <v>51</v>
-      </c>
-      <c r="C113" s="44">
-        <v>54.9</v>
-      </c>
-      <c r="D113" s="45">
-        <v>64.4</v>
-      </c>
-      <c r="E113" s="46">
-        <v>66.4</v>
-      </c>
-      <c r="F113" s="4">
-        <v>54.2</v>
-      </c>
-      <c r="G113" s="47">
-        <v>33.9</v>
-      </c>
-      <c r="H113" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J113" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="K113" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L113" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" ht="15.15" spans="1:12">
-      <c r="A114" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="B114" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="C114" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D114" s="62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E114" s="63">
-        <v>0</v>
-      </c>
-      <c r="F114" s="64">
-        <v>0</v>
-      </c>
-      <c r="G114" s="65">
-        <v>0</v>
-      </c>
-      <c r="H114" s="63">
-        <v>0</v>
-      </c>
-      <c r="I114" s="64">
-        <v>0</v>
-      </c>
-      <c r="J114" s="65">
-        <v>0</v>
-      </c>
-      <c r="K114" s="64">
-        <v>0</v>
-      </c>
-      <c r="L114" s="65">
-        <v>0</v>
-      </c>
+        <v>61.21</v>
+      </c>
+      <c r="E111" s="43">
+        <f>I25</f>
+        <v>68.23</v>
+      </c>
+      <c r="F111" s="44">
+        <f>M25</f>
+        <v>50.7</v>
+      </c>
+      <c r="G111" s="45">
+        <f>Q25</f>
+        <v>24.63</v>
+      </c>
+      <c r="H111" s="43">
+        <f>I54</f>
+        <v>67.7</v>
+      </c>
+      <c r="I111" s="44">
+        <f>M54</f>
+        <v>49</v>
+      </c>
+      <c r="J111" s="45">
+        <f>Q54</f>
+        <v>31.6</v>
+      </c>
+      <c r="K111" s="44">
+        <f>I83</f>
+        <v>66.24</v>
+      </c>
+      <c r="L111" s="45">
+        <f>M83</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>29</v>
+      </c>
+      <c r="B116" s="1">
+        <v>47.2</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="1">
+        <v>44.67</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>31</v>
+      </c>
+      <c r="B118" s="1">
+        <v>44.9</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B119" s="1">
-        <v>47.2</v>
+        <v>46.81</v>
       </c>
       <c r="C119"/>
       <c r="D119"/>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B120" s="1">
-        <v>44.67</v>
+        <v>44.92</v>
       </c>
       <c r="C120"/>
       <c r="D120"/>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B121" s="1">
-        <v>44.9</v>
+        <v>46.08</v>
       </c>
       <c r="C121"/>
       <c r="D121"/>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B122" s="1">
-        <v>46.81</v>
+        <v>45.55</v>
       </c>
       <c r="C122"/>
       <c r="D122"/>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B123" s="1">
-        <v>44.92</v>
+        <v>41.87</v>
       </c>
       <c r="C123"/>
       <c r="D123"/>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" t="s">
-        <v>34</v>
-      </c>
-      <c r="B124" s="1">
-        <v>46.08</v>
-      </c>
-      <c r="C124"/>
-      <c r="D124"/>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" t="s">
-        <v>35</v>
-      </c>
-      <c r="B125" s="1">
-        <v>45.55</v>
-      </c>
-      <c r="C125"/>
-      <c r="D125"/>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" t="s">
-        <v>36</v>
-      </c>
-      <c r="B126" s="1">
-        <v>41.87</v>
-      </c>
-      <c r="C126"/>
-      <c r="D126"/>
     </row>
   </sheetData>
   <mergeCells count="3">
